--- a/개발현황.xlsx
+++ b/개발현황.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\hopark_ssafit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyoung\Desktop\싸피1학기최종프로젝트\hopark_ssafit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBC3FA7-8C9C-40CA-9ED0-F8155647D089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="실수" sheetId="1" r:id="rId1"/>
+    <sheet name="현황" sheetId="1" r:id="rId1"/>
     <sheet name="변수명" sheetId="2" r:id="rId2"/>
     <sheet name="userTable더미데이터확인용" sheetId="3" r:id="rId3"/>
+    <sheet name="sports테이블관련자료" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="336">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>**을 *로 수정 이유는 모름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변수명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,14 +287,880 @@
   </si>
   <si>
     <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwaggerConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring-security 동작을 점검할 수 있도록 Http header 입력 기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User 관련 CRUD 모두 잘 동작함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">**을 *로 수정하니 잘 작동함 이유는 모름. **가 *를 포함하지 않나? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eng_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardcore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>football</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사계절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋살</t>
+  </si>
+  <si>
+    <t>futsal</t>
+  </si>
+  <si>
+    <t>농구</t>
+  </si>
+  <si>
+    <t>basketball</t>
+  </si>
+  <si>
+    <t>야구</t>
+  </si>
+  <si>
+    <t>baseball</t>
+  </si>
+  <si>
+    <t>여름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발야구</t>
+  </si>
+  <si>
+    <t>kickball</t>
+  </si>
+  <si>
+    <t>스트레스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배구</t>
+  </si>
+  <si>
+    <t>volleyball</t>
+  </si>
+  <si>
+    <t>비치발리볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beach_volleyball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foot_volleyball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트볼</t>
+  </si>
+  <si>
+    <t>softball</t>
+  </si>
+  <si>
+    <t>볼링</t>
+  </si>
+  <si>
+    <t>bowling</t>
+  </si>
+  <si>
+    <t>크리켓</t>
+  </si>
+  <si>
+    <t>cricket</t>
+  </si>
+  <si>
+    <t>피구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dodge_ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이트볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gate_ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프</t>
+  </si>
+  <si>
+    <t>golf</t>
+  </si>
+  <si>
+    <t>핸드볼</t>
+  </si>
+  <si>
+    <t>handball</t>
+  </si>
+  <si>
+    <t>육상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마라톤</t>
+  </si>
+  <si>
+    <t>marathon</t>
+  </si>
+  <si>
+    <t>경보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walking</t>
+  </si>
+  <si>
+    <t>격투기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태권도</t>
+  </si>
+  <si>
+    <t>taekwondo</t>
+  </si>
+  <si>
+    <t>택견</t>
+  </si>
+  <si>
+    <t>taekkyeon</t>
+  </si>
+  <si>
+    <t>씨름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean_wrestling</t>
+  </si>
+  <si>
+    <t>유도</t>
+  </si>
+  <si>
+    <t>judo</t>
+  </si>
+  <si>
+    <t>복싱</t>
+  </si>
+  <si>
+    <t>boxing</t>
+  </si>
+  <si>
+    <t>킥복싱</t>
+  </si>
+  <si>
+    <t>kickboxing</t>
+  </si>
+  <si>
+    <t>레슬링</t>
+  </si>
+  <si>
+    <t>wrestling</t>
+  </si>
+  <si>
+    <t>주짓수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiu-jitsu</t>
+  </si>
+  <si>
+    <t>합기도</t>
+  </si>
+  <si>
+    <t>hapkido</t>
+  </si>
+  <si>
+    <t>무에타이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muay_thai</t>
+  </si>
+  <si>
+    <t>체조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어로빅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aerobics</t>
+  </si>
+  <si>
+    <t>리듬체조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gymnastics</t>
+  </si>
+  <si>
+    <t>체조</t>
+  </si>
+  <si>
+    <t>트램폴린</t>
+  </si>
+  <si>
+    <t>trampoline</t>
+  </si>
+  <si>
+    <t>동계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피겨스케이팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>figure_skating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동계</t>
+  </si>
+  <si>
+    <t>스피드스케이팅</t>
+  </si>
+  <si>
+    <t>speed_skating</t>
+  </si>
+  <si>
+    <t>아이스하키</t>
+  </si>
+  <si>
+    <t>ice_hockey</t>
+  </si>
+  <si>
+    <t>쇼트트랙</t>
+  </si>
+  <si>
+    <t>short_track</t>
+  </si>
+  <si>
+    <t>스키</t>
+  </si>
+  <si>
+    <t>skiing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스노보드</t>
+  </si>
+  <si>
+    <t>snowboard</t>
+  </si>
+  <si>
+    <t>등산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등산</t>
+  </si>
+  <si>
+    <t>mountaineering</t>
+  </si>
+  <si>
+    <t>트레킹</t>
+  </si>
+  <si>
+    <t>trekking</t>
+  </si>
+  <si>
+    <t>암벽등반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock_climbing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙벽등반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice_climbing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테니스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tennis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라켓</t>
+  </si>
+  <si>
+    <t>배드민턴</t>
+  </si>
+  <si>
+    <t>bedminton</t>
+  </si>
+  <si>
+    <t>스퀴시</t>
+  </si>
+  <si>
+    <t>squash</t>
+  </si>
+  <si>
+    <t>탁구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_tennis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댄스스포츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댄스스포츠</t>
+  </si>
+  <si>
+    <t>폴댄스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pole_dance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱고</t>
+  </si>
+  <si>
+    <t>tango</t>
+  </si>
+  <si>
+    <t>퀵스텝</t>
+  </si>
+  <si>
+    <t>Quickstep</t>
+  </si>
+  <si>
+    <t>삼바</t>
+  </si>
+  <si>
+    <t>samba</t>
+  </si>
+  <si>
+    <t>수상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영_자유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freestyle</t>
+  </si>
+  <si>
+    <t>수상</t>
+  </si>
+  <si>
+    <t>수영_배영</t>
+  </si>
+  <si>
+    <t>backstroke</t>
+  </si>
+  <si>
+    <t>수영_평영</t>
+  </si>
+  <si>
+    <t>breaststroke</t>
+  </si>
+  <si>
+    <t>수영_접영</t>
+  </si>
+  <si>
+    <t>butterfly</t>
+  </si>
+  <si>
+    <t>다이빙</t>
+  </si>
+  <si>
+    <t>diving</t>
+  </si>
+  <si>
+    <t>카누</t>
+  </si>
+  <si>
+    <t>canoe</t>
+  </si>
+  <si>
+    <t>조정</t>
+  </si>
+  <si>
+    <t>rowing</t>
+  </si>
+  <si>
+    <t>수구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water_polo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상스키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water_skiing</t>
+  </si>
+  <si>
+    <t>서핑</t>
+  </si>
+  <si>
+    <t>surfing</t>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>자전거</t>
+  </si>
+  <si>
+    <t>cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가</t>
+  </si>
+  <si>
+    <t>yoga</t>
+  </si>
+  <si>
+    <t>승마</t>
+  </si>
+  <si>
+    <t>horseback_riding</t>
+  </si>
+  <si>
+    <t>프리즈비</t>
+  </si>
+  <si>
+    <t>frisbee</t>
+  </si>
+  <si>
+    <t>사격</t>
+  </si>
+  <si>
+    <t>shooting</t>
+  </si>
+  <si>
+    <t>양궁</t>
+  </si>
+  <si>
+    <t>archery</t>
+  </si>
+  <si>
+    <t>INSERT INTO sports (category, name, eng_name, season, goal, individual, indoor, hardcore, minor, cost) VALUES ('구기', '축구', 'football', '사계절', '둘다', False, False, True, False, False),</t>
+  </si>
+  <si>
+    <t>('구기', '풋살', 'futsal', '사계절', '둘다', False, False, False, False, False),</t>
+  </si>
+  <si>
+    <t>('구기', '농구', 'basketball', '사계절', '둘다', False, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('구기', '야구', 'baseball', '여름', '둘다', False, False, False, False, False),</t>
+  </si>
+  <si>
+    <t>('구기', '발야구', 'kickball', '여름', '스트레스', False, False, False, False, False),</t>
+  </si>
+  <si>
+    <t>('구기', '배구', 'volleyball', '사계절', '스트레스', False, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('구기', '비치발리볼', 'beach_volleyball', '여름', '스트레스', False, False, False, True, False),</t>
+  </si>
+  <si>
+    <t>('구기', '족구', 'foot_volleyball', '사계절', '스트레스', False, False, False, False, False),</t>
+  </si>
+  <si>
+    <t>('구기', '소프트볼', 'softball', '여름', '스트레스', False, True, False, True, False),</t>
+  </si>
+  <si>
+    <t>('구기', '볼링', 'bowling', '사계절', '스트레스', False, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('구기', '크리켓', 'cricket', '여름', '스트레스', False, False, False, True, False),</t>
+  </si>
+  <si>
+    <t>('구기', '피구', 'dodge_ball', '사계절', '스트레스', False, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('구기', '게이트볼', 'gate_ball', '사계절', '스트레스', False, True, False, True, False),</t>
+  </si>
+  <si>
+    <t>('구기', '골프', 'golf', '여름', '스트레스', False, False, False, False, True),</t>
+  </si>
+  <si>
+    <t>('구기', '핸드볼', 'handball', '사계절', '둘다', False, True, False, True, False),</t>
+  </si>
+  <si>
+    <t>('육상', '달리기', 'running', '사계절', '둘다', True, False, False, False, False),</t>
+  </si>
+  <si>
+    <t>('육상', '마라톤', 'marathon', '사계절', '둘다', True, False, True, False, False),</t>
+  </si>
+  <si>
+    <t>('육상', '경보', 'walking', '사계절', '둘다', True, False, False, False, False),</t>
+  </si>
+  <si>
+    <t>('격투기', '태권도', 'taekwondo', '사계절', '둘다', False, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('격투기', '택견', 'taekkyeon', '사계절', '스트레스', False, True, False, True, False),</t>
+  </si>
+  <si>
+    <t>('격투기', '씨름', 'Korean_wrestling', '사계절', '둘다', False, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('격투기', '유도', 'judo', '사계절', '둘다', False, True, True, False, False),</t>
+  </si>
+  <si>
+    <t>('격투기', '복싱', 'boxing', '사계절', '둘다', False, True, True, False, False),</t>
+  </si>
+  <si>
+    <t>('격투기', '킥복싱', 'kickboxing', '사계절', '둘다', False, True, True, False, False),</t>
+  </si>
+  <si>
+    <t>('격투기', '레슬링', 'wrestling', '사계절', '둘다', False, True, True, True, False),</t>
+  </si>
+  <si>
+    <t>('격투기', '주짓수', 'jiu-jitsu', '사계절', '둘다', False, True, True, True, False),</t>
+  </si>
+  <si>
+    <t>('격투기', '합기도', 'hapkido', '사계절', '둘다', False, True, True, False, False),</t>
+  </si>
+  <si>
+    <t>('격투기', '무에타이', 'muay_thai', '사계절', '둘다', False, True, True, False, False),</t>
+  </si>
+  <si>
+    <t>('체조', '에어로빅', 'aerobics', '사계절', '스트레스', True, True, False, True, False),</t>
+  </si>
+  <si>
+    <t>('체조', '리듬체조', 'gymnastics', '사계절', '스트레스', True, True, False, True, True),</t>
+  </si>
+  <si>
+    <t>('체조', '트램폴린', 'trampoline', '사계절', '스트레스', True, True, False, True, True),</t>
+  </si>
+  <si>
+    <t>('동계', '피겨스케이팅', 'figure_skating', '겨울', '스트레스', True, True, False, True, True),</t>
+  </si>
+  <si>
+    <t>('동계', '스피드스케이팅', 'speed_skating', '겨울', '스트레스', True, True, True, True, True),</t>
+  </si>
+  <si>
+    <t>('동계', '아이스하키', 'ice_hockey', '겨울', '스트레스', False, True, True, True, True),</t>
+  </si>
+  <si>
+    <t>('동계', '쇼트트랙', 'short_track', '겨울', '스트레스', True, True, False, True, True),</t>
+  </si>
+  <si>
+    <t>('동계', '스키', 'skiing', '겨울', '스트레스', True, False, False, False, True),</t>
+  </si>
+  <si>
+    <t>('동계', '스노보드', 'snowboard', '겨울', '스트레스', True, False, False, False, True),</t>
+  </si>
+  <si>
+    <t>('등산', '하이킹', 'hiking', '사계절', '스트레스', True, False, False, False, True),</t>
+  </si>
+  <si>
+    <t>('등산', '등산', 'mountaineering', '사계절', '둘다', True, False, False, False, True),</t>
+  </si>
+  <si>
+    <t>('등산', '트레킹', 'trekking', '사계절', '스트레스', True, False, False, True, True),</t>
+  </si>
+  <si>
+    <t>('등산', '암벽등반', 'rock_climbing', '사계절', '스트레스', True, False, True, True, True),</t>
+  </si>
+  <si>
+    <t>('등산', '빙벽등반', 'ice_climbing', '사계절', '스트레스', True, False, True, True, True),</t>
+  </si>
+  <si>
+    <t>('라켓', '테니스', 'tennis', '여름', '둘다', False, False, False, False, False),</t>
+  </si>
+  <si>
+    <t>('라켓', '배드민턴', 'bedminton', '사계절', '둘다', False, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('라켓', '스퀴시', 'squash', '사계절', '둘다', True, True, False, True, False),</t>
+  </si>
+  <si>
+    <t>('라켓', '탁구', 'table_tennis', '사계절', '스트레스', False, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('댄스스포츠', '발레', 'ballet', '사계절', '스트레스', True, True, False, True, True),</t>
+  </si>
+  <si>
+    <t>('댄스스포츠', '폴댄스', 'pole_dance', '사계절', '스트레스', True, True, False, True, True),</t>
+  </si>
+  <si>
+    <t>('댄스스포츠', '탱고', 'tango', '사계절', '스트레스', False, True, False, True, True),</t>
+  </si>
+  <si>
+    <t>('댄스스포츠', '퀵스텝', 'Quickstep', '사계절', '스트레스', False, True, False, True, True),</t>
+  </si>
+  <si>
+    <t>('댄스스포츠', '삼바', 'samba', '사계절', '스트레스', False, True, False, True, True),</t>
+  </si>
+  <si>
+    <t>('수상', '수영_자유형', 'freestyle', '사계절', '둘다', True, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('수상', '수영_배영', 'backstroke', '사계절', '둘다', True, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('수상', '수영_평영', 'breaststroke', '사계절', '둘다', True, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('수상', '수영_접영', 'butterfly', '사계절', '둘다', True, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('수상', '다이빙', 'diving', '사계절', '스트레스', True, True, True, True, False),</t>
+  </si>
+  <si>
+    <t>('수상', '카누', 'canoe', '여름', '스트레스', False, True, True, True, True),</t>
+  </si>
+  <si>
+    <t>('수상', '조정', 'rowing', '여름', '스트레스', False, True, True, True, True),</t>
+  </si>
+  <si>
+    <t>('수상', '수구', 'water_polo', '여름', '스트레스', False, True, False, True, True),</t>
+  </si>
+  <si>
+    <t>('수상', '수상스키', 'water_skiing', '여름', '스트레스', True, False, False, True, True),</t>
+  </si>
+  <si>
+    <t>('수상', '서핑', 'surfing', '여름', '스트레스', True, False, True, True, True),</t>
+  </si>
+  <si>
+    <t>('기타', '헬스', 'weight_training', '사계절', '몸', True, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('기타', '자전거', 'cycle', '사계절', '둘다', True, False, False, False, False),</t>
+  </si>
+  <si>
+    <t>('기타', '요가', 'yoga', '사계절', '스트레스', True, True, False, False, False),</t>
+  </si>
+  <si>
+    <t>('기타', '승마', 'horseback_riding', '사계절', '스트레스', True, False, False, True, True),</t>
+  </si>
+  <si>
+    <t>('기타', '프리즈비', 'frisbee', '사계절', '스트레스', True, True, False, True, True),</t>
+  </si>
+  <si>
+    <t>('기타', '사격', 'shooting', '사계절', '스트레스', True, True, False, True, True),</t>
+  </si>
+  <si>
+    <t>('기타', '양궁', 'archery', '사계절', '스트레스', True, True, False, True, True)</t>
+  </si>
+  <si>
+    <t>**더미데이터 password는 해싱된 상태고 원래는 swagger에서 id와 똑같이 입력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO user (id, password, name, location, email, age) VALUES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>('alice', '$2a$10$l028uh16oN5dSPKFAO1bquu/w0nJotmSQbER2bMynMBIzyb6jg486', 'alice', 'London', 'alice@gmail.com', 30),</t>
+  </si>
+  <si>
+    <t>('bob', '$2a$10$vgXhGy/ZPTLqFz6CS1fXZOuu35tjbSOfL9OrHuGQuttI4YDRYF4Ey', 'bob', 'Paris', 'bob@gmail.com', 22),</t>
+  </si>
+  <si>
+    <t>('david', '$2a$10$vHB7naUs4RTFhKWMFTpc7e/umKa.zCLXBEw4UwhOhm/kFAfvAMaw2', 'david', 'Tokyo', 'david@gmail.com', 28),</t>
+  </si>
+  <si>
+    <t>('eva', '$2a$10$0REuh.t/LpVqmVYml8xnx.Mzoq4pJcJ14hegHm7BCW8Zq.lCv6oH2', 'eva', 'Berlin', 'eva@gmail.com', 35),</t>
+  </si>
+  <si>
+    <t>('john', '$2a$10$KXXO9ELjn8amLYiM9cUnYuW0alkSNYAb/ZBal3MfIHEM1yM2cuVNq', 'john', 'New York', 'john@gmail.com', 25),</t>
+  </si>
+  <si>
+    <t>('linda', '$2a$10$yjaYF.n1PmevRbX20vlizeVhhjaGiVWouYrP0qYZD1tz5xSKeyqtS', 'linda', 'Rio de Janeiro', 'linda@gmail.com', 29),</t>
+  </si>
+  <si>
+    <t>('michael', '$2a$10$gO.7J90IrmnGMU1ynIMpjeTVmRxytoLa97OaTBXmvFv6hOyh2S1sa', 'michael', 'Cape Town', 'michael@gmail.com', 45),</t>
+  </si>
+  <si>
+    <t>('momo', '$2a$10$OZawGcdGS/7cKdZKp4Hjmu93YuK95xAIU6I8WcT.xi/iXlG8c3MqS', 'momo', 'Seoul', 'momo@gmail.com', 100),</t>
+  </si>
+  <si>
+    <t>('peter', '$2a$10$UjfYX1S7V0edzoSg4pOCT.ikwkEO6.Kr43fA0XqRoapOuBP4oj/Wi', 'peter', 'Moscow', 'peter@gmail.com', 32),</t>
+  </si>
+  <si>
+    <t>('susan', '$2a$10$gUy6w8KbRKIMTIwyAh9.UuvVAYl0Na4KD7W/f4jO0bR0FzK9rl0OK', 'susan', 'Sydney', 'susan@gmail.com', 40),</t>
+  </si>
+  <si>
+    <t>프론트에서 axios 로그인 요청을 날렸는데 response 헤더에 jwt가 제대로 안 보임. 네트워크 상에선 보이는데 axios response에서만 보이지 않아 고생함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안상 이유로 브라우저에서는 일부 헤더만 보여준다고 함. 백 응답에 header.set("Access-Control-Expose-Headers", "Authorization"); 추가하여 해결함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserStore.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 버튼 누르면 localStorage에서 jwt가 삭제되도록 정의함. 원래 템플릿에 직접 썼는데, Vue 컴포넌트에서는 localStorage에 직접 접근할 수 없다고 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function userLogout() 정의함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님 help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router 선언 위치가 useUserStore 바깥쪽에 있어서 오류가 났음. 콜백함수가 호출될 때 router가 정의되지 않을 수 있어서 함수 안쪽에서 선언하도록 수정함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +1194,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -345,7 +1226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -368,13 +1249,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,11 +1280,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,24 +1574,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="132.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="132.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="131.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="25.2" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -707,7 +1606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>45247</v>
       </c>
@@ -724,7 +1623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>45247</v>
       </c>
@@ -741,7 +1640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>45247</v>
       </c>
@@ -755,219 +1654,259 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>45250</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>45250</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>45250</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>45250</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>45250</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>45250</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>45250</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>45250</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -982,18 +1921,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="25.2" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1012,297 +1951,327 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="C1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="116.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="117.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="5" t="s">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D1" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="C3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="6" t="s">
+      <c r="J3" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="5">
         <v>30</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="6">
-        <v>30</v>
-      </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>22</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>28</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>35</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>25</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>29</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>323</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
+    <row r="10" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>45</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>100</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>32</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>326</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="6" t="s">
+    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>40</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1313,4 +2282,2442 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A537FB7-111A-4C3B-BC49-97F2D2B64862}">
+  <dimension ref="C3:N71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="C3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C55" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C56" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C57" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C58" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C59" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C60" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C61" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C62" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C63" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C64" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C67" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C68" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C70" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C71" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>